--- a/data/10-year-treasury-rate.xlsx
+++ b/data/10-year-treasury-rate.xlsx
@@ -502,13 +502,13 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="n">
-        <v>45667</v>
+        <v>45671</v>
       </c>
       <c r="B2" t="n">
-        <v>4.776000022888184</v>
+        <v>4.788000106811523</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>13.44418106622765</v>
+        <v>13.72921868910981</v>
       </c>
     </row>
     <row r="3">
